--- a/analyses/grad-learn-compare/Grad analysis 10.xlsx
+++ b/analyses/grad-learn-compare/Grad analysis 10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Files\Programming\thesis\analyses\grad-learn-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971F2A92-4A6C-45CB-8684-E13001F3F37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC8E03-9FA9-4875-88B0-9403B786746E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="wandb_export_2021-01-28T08_43_2" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1950,7 +1960,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2504,8 +2514,1808 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Grad analysis 10.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>sconf_image("final/arch.png")</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sconf_image("final/arctic.png")</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sconf_image("final/baboon.png")</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sconf_image("final/beach.png")</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sconf_image("final/bear.png")</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sconf_image("final/boat.png")</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sconf_image("final/bonito.png")</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sconf_image("final/cathedral.png")</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sconf_image("final/corrosion.png")</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sconf_image("final/f15.png")</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sconf_image("final/f16.png")</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sconf_image("final/fontaine.png")</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sconf_image("final/kid.png")</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sconf_image("final/lake.png")</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sconf_image("final/lena.png")</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>sconf_image("final/machine.png")</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sconf_image("final/newyork.png")</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sconf_image("final/opera.png")</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>sconf_image("final/peppers.png")</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>sconf_image("final/pills.png")</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sconf_image("final/rose.png")</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sconf_image("final/stress.png")</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>sconf_image("final/watch.png")</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>sconf_image("final/water.png")</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sconf_image("final/waterfall.png")</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>sconf_image("final/wildflowers.png")</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>287.88912326097454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370.440010219812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>276.16037133336027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.64437225460952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.06562554836228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238.42250025272315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.66149935126265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.96087393164601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>308.70812380313811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.268496990203815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.07024922966923</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182.49987390637338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>234.85312128066963</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265.13637471198984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.74687409400903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280.95924875140133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>316.57712033390959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>235.50437074899639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264.34949615597662</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>419.07114212853497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250.92313892500695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203.39771161760558</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>193.10342751230456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>194.10528578077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>249.74928447178399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>562.95342544146899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AD8-4E13-B7D0-F21ECF389DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>sconf_image("final/arch.png")</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sconf_image("final/arctic.png")</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sconf_image("final/baboon.png")</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sconf_image("final/beach.png")</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sconf_image("final/bear.png")</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sconf_image("final/boat.png")</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sconf_image("final/bonito.png")</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sconf_image("final/cathedral.png")</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sconf_image("final/corrosion.png")</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sconf_image("final/f15.png")</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sconf_image("final/f16.png")</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sconf_image("final/fontaine.png")</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sconf_image("final/kid.png")</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sconf_image("final/lake.png")</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sconf_image("final/lena.png")</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>sconf_image("final/machine.png")</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sconf_image("final/newyork.png")</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sconf_image("final/opera.png")</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>sconf_image("final/peppers.png")</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>sconf_image("final/pills.png")</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sconf_image("final/rose.png")</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sconf_image("final/stress.png")</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>sconf_image("final/watch.png")</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>sconf_image("final/water.png")</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sconf_image("final/waterfall.png")</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>sconf_image("final/wildflowers.png")</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>304.65861901640852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>481.96523463725987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328.47774931788427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.09762299060776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301.41024887561753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.58424836397111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304.70587030053088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.67462369799549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>332.30474600195839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.0581241846082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.38412332534733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>213.63424733281087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261.44249871373137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>376.58787482976862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>215.86387333273836</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255.19074732065138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>357.82399663329062</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>236.56462457776027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>282.19799903035107</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450.14085323469942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>268.75771328381097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231.64471323149482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178.15485334396314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>211.00228214263856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>220.34814197676471</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>512.93142798968688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AD8-4E13-B7D0-F21ECF389DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>sconf_image("final/arch.png")</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sconf_image("final/arctic.png")</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sconf_image("final/baboon.png")</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sconf_image("final/beach.png")</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sconf_image("final/bear.png")</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sconf_image("final/boat.png")</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sconf_image("final/bonito.png")</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sconf_image("final/cathedral.png")</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sconf_image("final/corrosion.png")</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sconf_image("final/f15.png")</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sconf_image("final/f16.png")</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sconf_image("final/fontaine.png")</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sconf_image("final/kid.png")</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sconf_image("final/lake.png")</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sconf_image("final/lena.png")</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>sconf_image("final/machine.png")</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sconf_image("final/newyork.png")</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sconf_image("final/opera.png")</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>sconf_image("final/peppers.png")</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>sconf_image("final/pills.png")</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sconf_image("final/rose.png")</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sconf_image("final/stress.png")</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>sconf_image("final/watch.png")</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>sconf_image("final/water.png")</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sconf_image("final/waterfall.png")</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>sconf_image("final/wildflowers.png")</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>239.95112404227226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380.36649790406165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.11137360334351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.70662280917125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282.32062375545473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.52437385916664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.83199894428213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229.50099837779953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>298.52674549817999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.63737151026697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322.3163738846776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190.72762370109513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.51437333226164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271.11137336492482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201.69974908232638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.60162335634189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>297.87937340140303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234.80099779367387</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266.38987410068461</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>403.44585078103142</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>271.53113855634388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>208.94142508506729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187.02642760957946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237.91928488867575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>198.57185326303699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>555.39656972885109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0AD8-4E13-B7D0-F21ECF389DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>sconf_image("final/arch.png")</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sconf_image("final/arctic.png")</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sconf_image("final/baboon.png")</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sconf_image("final/beach.png")</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sconf_image("final/bear.png")</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sconf_image("final/boat.png")</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sconf_image("final/bonito.png")</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sconf_image("final/cathedral.png")</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sconf_image("final/corrosion.png")</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sconf_image("final/f15.png")</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sconf_image("final/f16.png")</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sconf_image("final/fontaine.png")</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sconf_image("final/kid.png")</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sconf_image("final/lake.png")</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sconf_image("final/lena.png")</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>sconf_image("final/machine.png")</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sconf_image("final/newyork.png")</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sconf_image("final/opera.png")</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>sconf_image("final/peppers.png")</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>sconf_image("final/pills.png")</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sconf_image("final/rose.png")</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sconf_image("final/stress.png")</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>sconf_image("final/watch.png")</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>sconf_image("final/water.png")</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sconf_image("final/waterfall.png")</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>sconf_image("final/wildflowers.png")</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0AD8-4E13-B7D0-F21ECF389DEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="665097152"/>
+        <c:axId val="796497472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="665097152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796497472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796497472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665097152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7040CFA6-2A43-43C9-9A15-EC3D5599EC20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Matthew A. Robinson" refreshedDate="44224.363773958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="605">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matthew A. Robinson" refreshedDate="44224.363773958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="605" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="wandb_export_2021-01-28T08_43_2"/>
   </cacheSource>
@@ -7416,7 +9226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -7577,7 +9387,7 @@
   <dataFields count="1">
     <dataField name="Average of total_seconds" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="8">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -7615,6 +9425,54 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7935,11 +9793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8477,14 +10335,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9002,7 +10861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
